--- a/GameMaster/GameDesign/详细方案/事件规划.xlsx
+++ b/GameMaster/GameDesign/详细方案/事件规划.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\GameDesign\详细方案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\GameDesign\详细方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE109A8-3242-44CA-AD97-B113719371C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E95EFC-287F-430B-A4F7-BDEAEA69BDBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2160" windowWidth="24720" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1125" windowWidth="21030" windowHeight="12945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="太阳系区域" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="2" r:id="rId1"/>
+    <sheet name="任务" sheetId="4" r:id="rId2"/>
+    <sheet name="太阳系区域" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +102,114 @@
   </si>
   <si>
     <t>探索描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一：探索事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由探索衍生的所有事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二：人物事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物衍生的所有事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三：飞船事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面内所有与舱室相关的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四：游戏初始事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个阵营一个，外加自定义阵营一个，介绍初始情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务参数（条件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播一个事件，事件结果带所有结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务限时（以天计算，接取的一天不算）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前接取的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没完成时，任务链会一直显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接取条件为第一个任务的接取条件，后续加入队列，直到满足下一个任务的接取条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务完成条件与参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +235,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -164,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,80 +298,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -265,6 +317,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5EEFFB-4687-4C9B-9CB6-A8BD598799A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8258175" y="0"/>
+          <a:ext cx="7629525" cy="6183510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -362,7 +480,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -619,11 +737,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF72F06-66F8-4029-83E8-8F94E8F6EA4E}">
+  <dimension ref="A2:AX15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="29" width="5.625" style="2" customWidth="1"/>
+    <col min="30" max="50" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52713C5-B3FE-46E3-BB4F-7F14D685FCA0}">
+  <dimension ref="A2:AX20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="29" width="5.625" style="2" customWidth="1"/>
+    <col min="30" max="50" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X6"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
